--- a/sample_test_data.xlsx
+++ b/sample_test_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -71,10 +71,10 @@
     <t>事项质检 - 元素是否可呈现</t>
   </si>
   <si>
-    <t>https://www.jszwfw.gov.cn/jszwfw/publicservice/itemlist/showDetail.do?webId=114&amp;iddept_yw_inf=113205110141520052432201432600301&amp;ql_kind=20&amp;iddept_ql_inf=1132051101415200524322014326003</t>
-  </si>
-  <si>
-    <t>招聘会展位申请表</t>
+    <t>https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002</t>
+  </si>
+  <si>
+    <t>体检合格证明</t>
   </si>
   <si>
     <t>空白表格</t>
@@ -87,36 +87,6 @@
   </si>
   <si>
     <t>有无问题</t>
-  </si>
-  <si>
-    <t>示例样表</t>
-  </si>
-  <si>
-    <t>我省居民赴港澳探亲签注的许可</t>
-  </si>
-  <si>
-    <t>https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000</t>
-  </si>
-  <si>
-    <t>证明相应亲属关系的下列材料之一：结婚证、《出生医学证明》、户口簿、公安派出所证明、亲属关系公证书</t>
-  </si>
-  <si>
-    <t>往来港澳通行证</t>
-  </si>
-  <si>
-    <t>中国公民出入境证件申请表</t>
-  </si>
-  <si>
-    <t>江苏省新型墙体材料产品认定</t>
-  </si>
-  <si>
-    <t>https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000</t>
-  </si>
-  <si>
-    <t>江苏省新型墙体材料产品认定（换证）申请表</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 申报主体承诺书</t>
   </si>
 </sst>
 </file>
@@ -129,7 +99,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,31 +132,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -693,137 +649,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,34 +804,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1406,13 +1347,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
     <col min="3" max="3" width="14.7403846153846" customWidth="1"/>
@@ -1474,355 +1415,31 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="13">
         <v>45909.5</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="34" spans="1:11">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="18">
-        <v>45910.5</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="61" spans="1:11">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="18">
-        <v>45911.5</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="61" spans="1:11">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="18">
-        <v>45912.5</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="61" spans="1:11">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="18">
-        <v>45913.5</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="61" spans="1:11">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="18">
-        <v>45914.5</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:11">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="18">
-        <v>45915.5</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:11">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="18">
-        <v>45916.5</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" ht="17.6" spans="1:11">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="18">
-        <v>45917.5</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" spans="1:11">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="18">
-        <v>45918.5</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://www.jszwfw.gov.cn/jszwfw/publicservice/itemlist/showDetail.do?webId=114&amp;iddept_yw_inf=113205110141520052432201432600301&amp;ql_kind=20&amp;iddept_ql_inf=1132051101415200524322014326003" tooltip="https://www.jszwfw.gov.cn/jszwfw/publicservice/itemlist/showDetail.do?webId=114&amp;iddept_yw_inf=113205110141520052432201432600301&amp;ql_kind=20&amp;iddept_ql_inf=1132051101415200524322014326003"/>
-    <hyperlink ref="E3" r:id="rId1" display="https://www.jszwfw.gov.cn/jszwfw/publicservice/itemlist/showDetail.do?webId=114&amp;iddept_yw_inf=113205110141520052432201432600301&amp;ql_kind=20&amp;iddept_ql_inf=1132051101415200524322014326003"/>
-    <hyperlink ref="E4" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
-    <hyperlink ref="E6" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
-    <hyperlink ref="E7" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
-    <hyperlink ref="E8" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
-    <hyperlink ref="E9" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
-    <hyperlink ref="E10" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
-    <hyperlink ref="E11" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002" tooltip="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sample_test_data.xlsx
+++ b/sample_test_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>有无问题</t>
+  </si>
+  <si>
+    <t>示例样表</t>
   </si>
 </sst>
 </file>
@@ -1347,13 +1350,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
     <col min="3" max="3" width="14.7403846153846" customWidth="1"/>
@@ -1437,9 +1440,45 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" ht="34" spans="1:11">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="13">
+        <v>45909.5</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002" tooltip="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002"/>
+    <hyperlink ref="E3" r:id="rId1" display="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002" tooltip="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/sample_test_data.xlsx
+++ b/sample_test_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>序号</t>
   </si>
@@ -90,6 +90,33 @@
   </si>
   <si>
     <t>示例样表</t>
+  </si>
+  <si>
+    <t>我省居民赴港澳探亲签注的许可</t>
+  </si>
+  <si>
+    <t>https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000</t>
+  </si>
+  <si>
+    <t>证明相应亲属关系的下列材料之一：结婚证、《出生医学证明》、户口簿、公安派出所证明、亲属关系公证书</t>
+  </si>
+  <si>
+    <t>往来港澳通行证</t>
+  </si>
+  <si>
+    <t>中国公民出入境证件申请表</t>
+  </si>
+  <si>
+    <t>江苏省新型墙体材料产品认定</t>
+  </si>
+  <si>
+    <t>https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000</t>
+  </si>
+  <si>
+    <t>江苏省新型墙体材料产品认定（换证）申请表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 申报主体承诺书</t>
   </si>
 </sst>
 </file>
@@ -102,7 +129,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +162,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -142,8 +175,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -652,137 +686,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,19 +841,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1350,18 +1393,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="15.5384615384615" customWidth="1"/>
     <col min="3" max="3" width="14.7403846153846" customWidth="1"/>
     <col min="4" max="4" width="10.5673076923077" customWidth="1"/>
-    <col min="5" max="5" width="17.2980769230769" customWidth="1"/>
+    <col min="5" max="5" width="30.2884615384615" customWidth="1"/>
     <col min="6" max="6" width="15.5384615384615" customWidth="1"/>
     <col min="7" max="7" width="30.7596153846154" customWidth="1"/>
     <col min="8" max="8" width="49.5096153846154" customWidth="1"/>
@@ -1418,25 +1461,25 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="16">
         <v>45909.5</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1453,25 +1496,305 @@
       <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="16">
         <v>45909.5</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="31" spans="1:11">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16">
+        <v>45911.5</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="31" spans="1:11">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="16">
+        <v>45912.5</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="31" spans="1:11">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="16">
+        <v>45913.5</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="31" spans="1:11">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="16">
+        <v>45914.5</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:11">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="16">
+        <v>45915.5</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:11">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="16">
+        <v>45916.5</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:11">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="16">
+        <v>45917.5</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="1:11">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="16">
+        <v>45918.5</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1479,6 +1802,14 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002" tooltip="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002"/>
     <hyperlink ref="E3" r:id="rId1" display="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002" tooltip="https://sz.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=3&amp;iddept_yw_inf=113205000141492526332010502800201&amp;ql_kind=01&amp;iddept_ql_inf=1132050001414925263320105028002"/>
+    <hyperlink ref="E4" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
+    <hyperlink ref="E5" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
+    <hyperlink ref="E7" r:id="rId2" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=28&amp;iddept_yw_inf=113205000141984332432010904300005&amp;ql_kind=01&amp;iddept_ql_inf=1132050001419843324320109043000"/>
+    <hyperlink ref="E8" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
+    <hyperlink ref="E9" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
+    <hyperlink ref="E10" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://www.jszwfw.gov.cn/jszwfw/bscx/itemlist/bszn.do?webId=1&amp;iddept_yw_inf=11320000696785044Q232070701000001&amp;ql_kind=07&amp;iddept_ql_inf=11320000696785044Q2320707010000"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
